--- a/sample_inputs/single_session_batch_20.xlsx
+++ b/sample_inputs/single_session_batch_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6587B-D4E7-4813-B396-AEB719254414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19094F7D-58F2-4413-888E-687B1DCECA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="240" windowWidth="16380" windowHeight="18780" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17025" yWindow="2235" windowWidth="16995" windowHeight="15765" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Parameter</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Cost Curve Frontier Affinity Factor</t>
   </si>
   <si>
-    <t>Num Tech Options per Vehicle</t>
-  </si>
-  <si>
     <t>CostClouds
 CostCurves</t>
   </si>
@@ -190,6 +187,12 @@
   </si>
   <si>
     <t>single_session_batch</t>
+  </si>
+  <si>
+    <t>Num Tech Options per ICE Vehicle</t>
+  </si>
+  <si>
+    <t>Num Tech Options per BEV Vehicle</t>
   </si>
 </sst>
 </file>
@@ -682,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -860,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -881,7 +884,7 @@
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -950,7 +953,7 @@
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -983,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1010,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1037,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1058,13 +1061,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1091,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1118,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1145,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1169,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1199,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1253,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1385,9 +1388,9 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1395,81 +1398,87 @@
       <c r="C28" s="8">
         <v>15</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10" t="b">
+      <c r="C30" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>0.75</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1487,32 +1496,31 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-    </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1529,36 +1537,31 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -1583,10 +1586,16 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1604,6 +1613,27 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sample_inputs/single_session_batch_20.xlsx
+++ b/sample_inputs/single_session_batch_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19094F7D-58F2-4413-888E-687B1DCECA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8EECE-FD0A-4683-9E7F-AEC16C7CBBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="2235" windowWidth="16995" windowHeight="15765" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="4530" windowWidth="30945" windowHeight="15915" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Vehicles File</t>
   </si>
   <si>
-    <t>Fuel Scenarios File</t>
-  </si>
-  <si>
     <t>Fuel Scenario Annual Data File</t>
   </si>
   <si>
@@ -171,12 +168,6 @@
     <t>sample_inputs/fuels.csv</t>
   </si>
   <si>
-    <t>sample_inputs/fuel_scenarios.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/fuel_scenario_annual_data.csv</t>
-  </si>
-  <si>
     <t>sample_inputs/cost_curves.csv</t>
   </si>
   <si>
@@ -193,6 +184,15 @@
   </si>
   <si>
     <t>Num Tech Options per BEV Vehicle</t>
+  </si>
+  <si>
+    <t>sample_inputs/fuels_context.csv</t>
+  </si>
+  <si>
+    <t>GHG Standards Fuels File</t>
+  </si>
+  <si>
+    <t>sample_inputs/ghg_standards-fuels.csv</t>
   </si>
 </sst>
 </file>
@@ -688,8 +688,8 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -884,13 +884,13 @@
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -953,13 +953,13 @@
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1140,15 +1140,15 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1167,15 +1167,15 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1194,42 +1194,42 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1249,14 +1249,14 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>23</v>
+      <c r="A22" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>49</v>
+      <c r="C22" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -1561,13 +1561,13 @@
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
